--- a/tut06/output/2001MM07.xlsx
+++ b/tut06/output/2001MM07.xlsx
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -603,7 +603,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -712,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -733,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -776,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -797,7 +801,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -862,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -883,7 +889,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
